--- a/property/12VictorTerrace,Barnsley.xlsx
+++ b/property/12VictorTerrace,Barnsley.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\business\property\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\Personal\business\property\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2CDB3C-9D58-4781-BFA4-7AAE78C31C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13347E3C-904B-4281-BB3A-D27F2D81E5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AAF54CD4-AF15-40BB-8486-18DE73215734}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AAF54CD4-AF15-40BB-8486-18DE73215734}"/>
   </bookViews>
   <sheets>
     <sheet name="One Of Capital Cost" sheetId="1" r:id="rId1"/>
     <sheet name="Strategy" sheetId="3" r:id="rId2"/>
     <sheet name="Montly" sheetId="2" r:id="rId3"/>
-    <sheet name="Yearly" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Finder's Fee</t>
   </si>
@@ -93,6 +92,18 @@
   </si>
   <si>
     <t>Stamp Duty</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Depsit Needed</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Yield</t>
   </si>
 </sst>
 </file>
@@ -466,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E30230-B291-4147-BAFA-10C9E068EC87}">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +488,7 @@
     <col min="2" max="2" width="95.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -487,8 +498,17 @@
       <c r="C2">
         <v>75000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>150000</v>
+      </c>
+      <c r="L2">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
@@ -499,8 +519,19 @@
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <f>I2*0.25</f>
+        <v>37500</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3" si="0">L2*0.25</f>
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -510,8 +541,18 @@
       <c r="C4">
         <v>500</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>7500</v>
+      </c>
+      <c r="J4">
+        <f>I4/12</f>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -521,8 +562,19 @@
       <c r="C5">
         <v>1500</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <f>4.8%</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M5">
+        <f>5.3%</f>
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -533,7 +585,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -548,7 +600,7 @@
         <v>80850</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -563,7 +615,7 @@
         <v>80970</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -576,7 +628,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -590,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0213A49-944B-4236-B186-72E6458216B6}">
   <dimension ref="B1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,21 +755,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21976CA0-98D1-4F21-BB1A-3DB274EECFB8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="72.28515625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>